--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N2">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O2">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P2">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q2">
-        <v>6.007935360264666</v>
+        <v>15.51382165281666</v>
       </c>
       <c r="R2">
-        <v>54.07141824238199</v>
+        <v>139.62439487535</v>
       </c>
       <c r="S2">
-        <v>0.009222528089190373</v>
+        <v>0.02467582672634713</v>
       </c>
       <c r="T2">
-        <v>0.009222528089190373</v>
+        <v>0.02467582672634712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>24.538206</v>
       </c>
       <c r="O3">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P3">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q3">
-        <v>261.007736019338</v>
+        <v>306.2921717992033</v>
       </c>
       <c r="R3">
-        <v>2349.069624174042</v>
+        <v>2756.62954619283</v>
       </c>
       <c r="S3">
-        <v>0.4006619633185083</v>
+        <v>0.4871792861935774</v>
       </c>
       <c r="T3">
-        <v>0.4006619633185083</v>
+        <v>0.4871792861935773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N4">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O4">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P4">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q4">
-        <v>0.07135158508399998</v>
+        <v>55.81764110516612</v>
       </c>
       <c r="R4">
-        <v>0.6421642657559999</v>
+        <v>502.358769946495</v>
       </c>
       <c r="S4">
-        <v>0.0001095288078493005</v>
+        <v>0.08878189210937855</v>
       </c>
       <c r="T4">
-        <v>0.0001095288078493005</v>
+        <v>0.08878189210937855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H5">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I5">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J5">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N5">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O5">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P5">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q5">
-        <v>106.9695134902133</v>
+        <v>0.78975234415</v>
       </c>
       <c r="R5">
-        <v>962.7256214119201</v>
+        <v>7.107771097350001</v>
       </c>
       <c r="S5">
-        <v>0.1642043869804654</v>
+        <v>0.001256156763761281</v>
       </c>
       <c r="T5">
-        <v>0.1642043869804654</v>
+        <v>0.001256156763761281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H6">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I6">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J6">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N6">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O6">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P6">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q6">
-        <v>3.765178895837666</v>
+        <v>0.6484532049722223</v>
       </c>
       <c r="R6">
-        <v>33.886610062539</v>
+        <v>5.83607884475</v>
       </c>
       <c r="S6">
-        <v>0.005779767265365512</v>
+        <v>0.001031410524378039</v>
       </c>
       <c r="T6">
-        <v>0.005779767265365512</v>
+        <v>0.001031410524378039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J7">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N7">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O7">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P7">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q7">
-        <v>2.150194114000667</v>
+        <v>4.73138941633</v>
       </c>
       <c r="R7">
-        <v>19.351747026006</v>
+        <v>42.58250474697</v>
       </c>
       <c r="S7">
-        <v>0.003300672265007422</v>
+        <v>0.007525608326884087</v>
       </c>
       <c r="T7">
-        <v>0.003300672265007421</v>
+        <v>0.007525608326884085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J8">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>24.538206</v>
       </c>
       <c r="O8">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P8">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q8">
         <v>93.41267241475401</v>
@@ -951,10 +951,10 @@
         <v>840.7140517327862</v>
       </c>
       <c r="S8">
-        <v>0.1433938522257097</v>
+        <v>0.1485794390406053</v>
       </c>
       <c r="T8">
-        <v>0.1433938522257097</v>
+        <v>0.1485794390406052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J9">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N9">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O9">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P9">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q9">
-        <v>0.02553618657199999</v>
+        <v>17.02320693634767</v>
       </c>
       <c r="R9">
-        <v>0.229825679148</v>
+        <v>153.208862427129</v>
       </c>
       <c r="S9">
-        <v>3.919952260283659E-05</v>
+        <v>0.02707661039868921</v>
       </c>
       <c r="T9">
-        <v>3.91995226028366E-05</v>
+        <v>0.02707661039868921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J10">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N10">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O10">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P10">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q10">
-        <v>38.28357072637333</v>
+        <v>0.24085785993</v>
       </c>
       <c r="R10">
-        <v>344.5521365373601</v>
+        <v>2.16772073937</v>
       </c>
       <c r="S10">
-        <v>0.05876749419003913</v>
+        <v>0.0003831014014675358</v>
       </c>
       <c r="T10">
-        <v>0.05876749419003913</v>
+        <v>0.0003831014014675357</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J11">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N11">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O11">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P11">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q11">
-        <v>1.347528729009666</v>
+        <v>0.1977645933833334</v>
       </c>
       <c r="R11">
-        <v>12.127758561087</v>
+        <v>1.77988134045</v>
       </c>
       <c r="S11">
-        <v>0.002068534497970228</v>
+        <v>0.0003145585238855458</v>
       </c>
       <c r="T11">
-        <v>0.002068534497970228</v>
+        <v>0.0003145585238855458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H12">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I12">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J12">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N12">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O12">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P12">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q12">
-        <v>0.1287143061164444</v>
+        <v>0.5156304435766667</v>
       </c>
       <c r="R12">
-        <v>1.158428755048</v>
+        <v>4.640673992189999</v>
       </c>
       <c r="S12">
-        <v>0.000197583900700833</v>
+        <v>0.0008201465612579901</v>
       </c>
       <c r="T12">
-        <v>0.000197583900700833</v>
+        <v>0.0008201465612579897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H13">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I13">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J13">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>24.538206</v>
       </c>
       <c r="O13">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P13">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q13">
-        <v>5.591842724365335</v>
+        <v>10.18018460849133</v>
       </c>
       <c r="R13">
-        <v>50.32658451928801</v>
+        <v>91.62166147642201</v>
       </c>
       <c r="S13">
-        <v>0.008583801839293137</v>
+        <v>0.01619230110175656</v>
       </c>
       <c r="T13">
-        <v>0.008583801839293137</v>
+        <v>0.01619230110175656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H14">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N14">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O14">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P14">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q14">
-        <v>0.001528639909333333</v>
+        <v>1.855202134364778</v>
       </c>
       <c r="R14">
-        <v>0.013757759184</v>
+        <v>16.696819209283</v>
       </c>
       <c r="S14">
-        <v>2.34655062957652E-06</v>
+        <v>0.002950829746171738</v>
       </c>
       <c r="T14">
-        <v>2.34655062957652E-06</v>
+        <v>0.002950829746171738</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H15">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N15">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O15">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P15">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q15">
-        <v>2.291720179875556</v>
+        <v>0.02624887411</v>
       </c>
       <c r="R15">
-        <v>20.62548161888</v>
+        <v>0.23623986699</v>
       </c>
       <c r="S15">
-        <v>0.003517922957569179</v>
+        <v>4.175068424758264E-05</v>
       </c>
       <c r="T15">
-        <v>0.003517922957569179</v>
+        <v>4.175068424758262E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H16">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N16">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O16">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P16">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q16">
-        <v>0.08066538002177777</v>
+        <v>0.02155253690555555</v>
       </c>
       <c r="R16">
-        <v>0.725988420196</v>
+        <v>0.19397283215</v>
       </c>
       <c r="S16">
-        <v>0.0001238260214975563</v>
+        <v>3.42808289341223E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001238260214975563</v>
+        <v>3.42808289341223E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H17">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I17">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J17">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N17">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O17">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P17">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q17">
-        <v>1.863829026478667</v>
+        <v>4.158886484423333</v>
       </c>
       <c r="R17">
-        <v>16.774461238308</v>
+        <v>37.42997835981</v>
       </c>
       <c r="S17">
-        <v>0.002861085301255741</v>
+        <v>0.006615002064661797</v>
       </c>
       <c r="T17">
-        <v>0.002861085301255741</v>
+        <v>0.006615002064661795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H18">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I18">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J18">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>24.538206</v>
       </c>
       <c r="O18">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P18">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q18">
-        <v>80.97187558737201</v>
+        <v>82.10964403790868</v>
       </c>
       <c r="R18">
-        <v>728.7468802863481</v>
+        <v>738.9867963411781</v>
       </c>
       <c r="S18">
-        <v>0.1242965099088665</v>
+        <v>0.1306011757891787</v>
       </c>
       <c r="T18">
-        <v>0.1242965099088665</v>
+        <v>0.1306011757891787</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H19">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I19">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J19">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N19">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O19">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P19">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q19">
-        <v>0.022135250696</v>
+        <v>14.96338158190189</v>
       </c>
       <c r="R19">
-        <v>0.199217256264</v>
+        <v>134.670434237117</v>
       </c>
       <c r="S19">
-        <v>3.397888942935259E-05</v>
+        <v>0.02380031299948504</v>
       </c>
       <c r="T19">
-        <v>3.39788894293526E-05</v>
+        <v>0.02380031299948504</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H20">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N20">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O20">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P20">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q20">
-        <v>33.18492497605333</v>
+        <v>0.21171381389</v>
       </c>
       <c r="R20">
-        <v>298.66432478448</v>
+        <v>1.90542432501</v>
       </c>
       <c r="S20">
-        <v>0.05094077821700211</v>
+        <v>0.000336745742218536</v>
       </c>
       <c r="T20">
-        <v>0.05094077821700212</v>
+        <v>0.000336745742218536</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H21">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N21">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O21">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P21">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q21">
-        <v>1.168063451940667</v>
+        <v>0.1738348764277778</v>
       </c>
       <c r="R21">
-        <v>10.512571067466</v>
+        <v>1.56451388785</v>
       </c>
       <c r="S21">
-        <v>0.001793044923007445</v>
+        <v>0.0002764966225423257</v>
       </c>
       <c r="T21">
-        <v>0.001793044923007445</v>
+        <v>0.0002764966225423257</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H22">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I22">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J22">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N22">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O22">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P22">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q22">
-        <v>0.123665263744</v>
+        <v>0.5498362974266667</v>
       </c>
       <c r="R22">
-        <v>1.112987373696</v>
+        <v>4.948526676839999</v>
       </c>
       <c r="S22">
-        <v>0.0001898333287803438</v>
+        <v>0.0008745533825763278</v>
       </c>
       <c r="T22">
-        <v>0.0001898333287803438</v>
+        <v>0.0008745533825763274</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H23">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I23">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J23">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>24.538206</v>
       </c>
       <c r="O23">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P23">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q23">
-        <v>5.372492974464001</v>
+        <v>10.85551693462134</v>
       </c>
       <c r="R23">
-        <v>48.35243677017601</v>
+        <v>97.69965241159201</v>
       </c>
       <c r="S23">
-        <v>0.00824708729286153</v>
+        <v>0.01726646476273041</v>
       </c>
       <c r="T23">
-        <v>0.00824708729286153</v>
+        <v>0.0172664647627304</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H24">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I24">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J24">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N24">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O24">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P24">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q24">
-        <v>0.001468676352</v>
+        <v>1.978272394976445</v>
       </c>
       <c r="R24">
-        <v>0.013218087168</v>
+        <v>17.804451554788</v>
       </c>
       <c r="S24">
-        <v>2.254503102652049E-06</v>
+        <v>0.003146581669455484</v>
       </c>
       <c r="T24">
-        <v>2.25450310265205E-06</v>
+        <v>0.003146581669455483</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H25">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I25">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J25">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N25">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O25">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P25">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q25">
-        <v>2.201823472640001</v>
+        <v>0.02799016996</v>
       </c>
       <c r="R25">
-        <v>19.81641125376001</v>
+        <v>0.25191152964</v>
       </c>
       <c r="S25">
-        <v>0.003379926315147063</v>
+        <v>4.452033802055264E-05</v>
       </c>
       <c r="T25">
-        <v>0.003379926315147064</v>
+        <v>4.452033802055262E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H26">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N26">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O26">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P26">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q26">
-        <v>0.07750114028800001</v>
+        <v>0.02298228748888889</v>
       </c>
       <c r="R26">
-        <v>0.6975102625920001</v>
+        <v>0.2068405874</v>
       </c>
       <c r="S26">
-        <v>0.0001189687305854897</v>
+        <v>3.655494800328291E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001189687305854896</v>
+        <v>3.65549480032829E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H27">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I27">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J27">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.1882753333333333</v>
+        <v>0.41429</v>
       </c>
       <c r="N27">
-        <v>0.5648259999999999</v>
+        <v>1.24287</v>
       </c>
       <c r="O27">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882028</v>
       </c>
       <c r="P27">
-        <v>0.01590150887618359</v>
+        <v>0.04092688846882027</v>
       </c>
       <c r="Q27">
-        <v>0.08456097907822221</v>
+        <v>0.26138508967</v>
       </c>
       <c r="R27">
-        <v>0.761048811704</v>
+        <v>2.35246580703</v>
       </c>
       <c r="S27">
-        <v>0.0001298059912488787</v>
+        <v>0.0004157514070929515</v>
       </c>
       <c r="T27">
-        <v>0.0001298059912488786</v>
+        <v>0.0004157514070929513</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H28">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I28">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J28">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>24.538206</v>
       </c>
       <c r="O28">
-        <v>0.6908224842953787</v>
+        <v>0.808026921710989</v>
       </c>
       <c r="P28">
-        <v>0.6908224842953786</v>
+        <v>0.8080269217109887</v>
       </c>
       <c r="Q28">
-        <v>3.673652990802668</v>
+        <v>5.160572848046001</v>
       </c>
       <c r="R28">
-        <v>33.062876917224</v>
+        <v>46.445155632414</v>
       </c>
       <c r="S28">
-        <v>0.005639269710139375</v>
+        <v>0.008208254823140559</v>
       </c>
       <c r="T28">
-        <v>0.005639269710139374</v>
+        <v>0.008208254823140554</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H29">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I29">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J29">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.002236</v>
+        <v>1.490586333333334</v>
       </c>
       <c r="N29">
-        <v>0.006708</v>
+        <v>4.471759</v>
       </c>
       <c r="O29">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="P29">
-        <v>0.0001888498786200344</v>
+        <v>0.1472520712966306</v>
       </c>
       <c r="Q29">
-        <v>0.001004265114666667</v>
+        <v>0.9404452011856669</v>
       </c>
       <c r="R29">
-        <v>0.009038386032000001</v>
+        <v>8.464006810671</v>
       </c>
       <c r="S29">
-        <v>1.541605006316065E-06</v>
+        <v>0.001495844373450618</v>
       </c>
       <c r="T29">
-        <v>1.541605006316065E-06</v>
+        <v>0.001495844373450618</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H30">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I30">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J30">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>3.352186666666667</v>
+        <v>0.02109</v>
       </c>
       <c r="N30">
-        <v>10.05656</v>
+        <v>0.06327000000000001</v>
       </c>
       <c r="O30">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645586</v>
       </c>
       <c r="P30">
-        <v>0.2831216659712423</v>
+        <v>0.002083439324645585</v>
       </c>
       <c r="Q30">
-        <v>1.505583241137778</v>
+        <v>0.01330616607</v>
       </c>
       <c r="R30">
-        <v>13.55024917024</v>
+        <v>0.11975549463</v>
       </c>
       <c r="S30">
-        <v>0.002311157311019364</v>
+        <v>2.116439493009811E-05</v>
       </c>
       <c r="T30">
-        <v>0.002311157311019364</v>
+        <v>2.11643949300981E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H31">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I31">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J31">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1179923333333333</v>
+        <v>0.01731666666666667</v>
       </c>
       <c r="N31">
-        <v>0.353977</v>
+        <v>0.05195</v>
       </c>
       <c r="O31">
-        <v>0.009965490978575419</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="P31">
-        <v>0.009965490978575417</v>
+        <v>0.001710679198914781</v>
       </c>
       <c r="Q31">
-        <v>0.05299444730088888</v>
+        <v>0.01092548328333333</v>
       </c>
       <c r="R31">
-        <v>0.476950025708</v>
+        <v>0.09832934955</v>
       </c>
       <c r="S31">
-        <v>8.134954014918633E-05</v>
+        <v>1.73777511714651E-05</v>
       </c>
       <c r="T31">
-        <v>8.134954014918632E-05</v>
+        <v>1.737775117146509E-05</v>
       </c>
     </row>
   </sheetData>
